--- a/Data/Destinations.xlsx
+++ b/Data/Destinations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18220" yWindow="660" windowWidth="10000" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="12480" yWindow="660" windowWidth="10000" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="596">
   <si>
     <t>0 Magdalena Street, Makati</t>
   </si>
@@ -608,72 +608,27 @@
     <t>0 Balete Drive, New Manila, Quezon City</t>
   </si>
   <si>
-    <t>100 Sct M Alcaraz, Quezon City</t>
-  </si>
-  <si>
-    <t>0 Caragay, San Francisco del Monte, Quezon City</t>
-  </si>
-  <si>
-    <t>Regidor Street, Diliman, Quezon City</t>
-  </si>
-  <si>
     <t>0 Tomas Arguelles, Quezon City</t>
   </si>
   <si>
-    <t>0 North Ponce, Quezon City</t>
-  </si>
-  <si>
-    <t>0 D. Tuazon, Quezon City</t>
-  </si>
-  <si>
-    <t>0 Kanlaon Street, Quezon City</t>
-  </si>
-  <si>
     <t>0 Calamba Street, La Loma, Quezon City</t>
   </si>
   <si>
     <t>100 Bulusan, La Loma, Quezon City</t>
   </si>
   <si>
-    <t>0 Luntan, Quezon City</t>
-  </si>
-  <si>
-    <t>100 East Rodriguez Sr. Avenue, Quezon City</t>
-  </si>
-  <si>
     <t>0 Kaliraya Road, Quezon City</t>
   </si>
   <si>
-    <t>0 Dapitan Extension, Santa Mesa Heights, Quezon City</t>
-  </si>
-  <si>
-    <t>100 D. Tuazon, Santa Mesa Heights, Quezon City</t>
-  </si>
-  <si>
-    <t>100 Apo Street, Santa Mesa Heights, Quezon City</t>
-  </si>
-  <si>
     <t>Broadway Centrum, Quezon City</t>
   </si>
   <si>
-    <t>Florence Street, Quezon City</t>
-  </si>
-  <si>
     <t>200 Kaliraya Road, Quezon City</t>
   </si>
   <si>
-    <t>0 Sto. Domingo Avenue, Quezon City</t>
-  </si>
-  <si>
-    <t>700 Banawe Street, Quezon City</t>
-  </si>
-  <si>
     <t>0 Big Horseshoe Drive, Quezon City</t>
   </si>
   <si>
-    <t>0 1st Street, Quezon City</t>
-  </si>
-  <si>
     <t>0 16th, Quezon City</t>
   </si>
   <si>
@@ -1665,6 +1620,201 @@
   </si>
   <si>
     <t>0 A. Bonifacio Avenue, La Loma, Quezon City (NO ZONE)</t>
+  </si>
+  <si>
+    <t>100 Sct M Alcaraz, Quezon City (NO ZONE)</t>
+  </si>
+  <si>
+    <t>0 Caragay, San Francisco del Monte, Quezon City (INSUFFECIENT DATA)</t>
+  </si>
+  <si>
+    <t>Regidor Street, Diliman, Quezon City (NO DATA AT ALL)</t>
+  </si>
+  <si>
+    <t>0 North Ponce, Quezon City (NO DATA)</t>
+  </si>
+  <si>
+    <t>0 D. Tuazon, Quezon City (NO DATA)</t>
+  </si>
+  <si>
+    <t>0 Kanlaon Street, Quezon City (NO DATA)</t>
+  </si>
+  <si>
+    <t>0 Luntan, Quezon City (INSUFFECIENT DATA)</t>
+  </si>
+  <si>
+    <t>100 East Rodriguez Sr. Avenue, Quezon City (NO DATA AT ALL)</t>
+  </si>
+  <si>
+    <t>0 Kaliraya Road, Quezon City (INSUFFECIENT DATA)</t>
+  </si>
+  <si>
+    <t>0 Dapitan Extension, Santa Mesa Heights, Quezon City (NO DATA AT ALL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 D. Tuazon, Santa Mesa Heights, Quezon City </t>
+  </si>
+  <si>
+    <t>100 Apo Street, Santa Mesa Heights, Quezon City (NO DATA AT ALL)</t>
+  </si>
+  <si>
+    <t>Sunrise Hill, New Manila, Quezon City (DUPLICATE)</t>
+  </si>
+  <si>
+    <t>0 12th, New Manila, Quezon City (DUPLICATE)</t>
+  </si>
+  <si>
+    <t>Florence Street, Quezon City (NO DATA)</t>
+  </si>
+  <si>
+    <t>0 Sto. Domingo Avenue, Quezon City (INSUFFECIENT DATA)</t>
+  </si>
+  <si>
+    <t>700 Banawe Street, Quezon City (INSUFFECEINT DATA)</t>
+  </si>
+  <si>
+    <t>0 1st Street, Quezon City (5:20 PM - stopped here)</t>
+  </si>
+  <si>
+    <t>Malls and Schools</t>
+  </si>
+  <si>
+    <t>Gateway Mall</t>
+  </si>
+  <si>
+    <t>Glorietta</t>
+  </si>
+  <si>
+    <t>Greenbelt</t>
+  </si>
+  <si>
+    <t>Market Market</t>
+  </si>
+  <si>
+    <t>Power Plant Mall</t>
+  </si>
+  <si>
+    <t>Robinsons Galleria</t>
+  </si>
+  <si>
+    <t>Robinsons Place Manila</t>
+  </si>
+  <si>
+    <t>Shangri-La Plazza</t>
+  </si>
+  <si>
+    <t>Sm Aura Premier</t>
+  </si>
+  <si>
+    <t>Sm Mall of Asia</t>
+  </si>
+  <si>
+    <t>Sm Mega Mall</t>
+  </si>
+  <si>
+    <t>Farmers mall</t>
+  </si>
+  <si>
+    <t>Forum Robinsons</t>
+  </si>
+  <si>
+    <t>Makati Square</t>
+  </si>
+  <si>
+    <t>Pearl Plaza</t>
+  </si>
+  <si>
+    <t>Sm City Bicutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sm City Manila </t>
+  </si>
+  <si>
+    <t>Walter Mart Makati</t>
+  </si>
+  <si>
+    <t>Bonifacio High Street</t>
+  </si>
+  <si>
+    <t>Newport Mall</t>
+  </si>
+  <si>
+    <t>Circuit Lane</t>
+  </si>
+  <si>
+    <t>Eastwood Mall</t>
+  </si>
+  <si>
+    <t>Century City Mall</t>
+  </si>
+  <si>
+    <t>Rockwell Makati</t>
+  </si>
+  <si>
+    <t>Venice Piazza</t>
+  </si>
+  <si>
+    <t>Alphaland Southgate Mall</t>
+  </si>
+  <si>
+    <t>Jazz Mall</t>
+  </si>
+  <si>
+    <t>Tiendesitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolegio  de Santa Rosa </t>
+  </si>
+  <si>
+    <t>Coolegio San Agustin</t>
+  </si>
+  <si>
+    <t>Don Bosco Technical Institute</t>
+  </si>
+  <si>
+    <t>Makati Science Highschool</t>
+  </si>
+  <si>
+    <t>Saint Paul College of Makati</t>
+  </si>
+  <si>
+    <t>La Salle Green Hills</t>
+  </si>
+  <si>
+    <t>Lourdes School of Mandaluyong</t>
+  </si>
+  <si>
+    <t>Xavier School</t>
+  </si>
+  <si>
+    <t>Alabang Town Center (NO ZONE) ??</t>
+  </si>
+  <si>
+    <t>Festive Mall (NO ZONE AGAIN)</t>
+  </si>
+  <si>
+    <t>Sm Southmall (NO ZONE)</t>
+  </si>
+  <si>
+    <t>Trinoma (NO ZONE)</t>
+  </si>
+  <si>
+    <t>Harrison Plaza (INSUFFECIENT)</t>
+  </si>
+  <si>
+    <t>Sm City BF Paranaque (NO ZONE)</t>
+  </si>
+  <si>
+    <t>Fully Booked, BGC</t>
+  </si>
+  <si>
+    <t>UP Town Center (NO ZONE)</t>
+  </si>
+  <si>
+    <t>Uptown Mall (7:02) Stopped here</t>
+  </si>
+  <si>
+    <t>Add Universities and College</t>
   </si>
 </sst>
 </file>
@@ -2007,10 +2157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B572"/>
+  <dimension ref="A1:B624"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A549" workbookViewId="0">
+      <selection activeCell="A625" sqref="A625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2051,7 +2201,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -2086,7 +2236,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -2096,7 +2246,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -2126,12 +2276,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
@@ -2186,7 +2336,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -2276,7 +2426,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
@@ -2311,7 +2461,7 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
@@ -2966,7 +3116,7 @@
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
@@ -2976,7 +3126,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -2986,17 +3136,17 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -3016,12 +3166,12 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -3044,7 +3194,7 @@
         <v>189</v>
       </c>
       <c r="B205" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -3069,57 +3219,57 @@
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>193</v>
+        <v>531</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>194</v>
+        <v>532</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>195</v>
+        <v>533</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>197</v>
+        <v>534</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>198</v>
+        <v>535</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>199</v>
+        <v>536</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
@@ -3129,77 +3279,77 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>202</v>
+        <v>537</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>203</v>
+        <v>538</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>204</v>
+        <v>539</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>205</v>
+        <v>540</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>206</v>
+        <v>541</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>207</v>
+        <v>542</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>187</v>
+        <v>543</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>188</v>
+        <v>544</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>209</v>
+        <v>545</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>211</v>
+        <v>546</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>212</v>
+        <v>547</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>214</v>
+        <v>548</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
@@ -3214,57 +3364,57 @@
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
@@ -3279,1542 +3429,1542 @@
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
@@ -4824,62 +4974,297 @@
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="3" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="3" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="3" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="3" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="3" t="s">
-        <v>527</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
